--- a/doc/CS673_SPPP_RiskManagement_team3.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>Risk Category</t>
   </si>
@@ -113,21 +113,24 @@
     <t>Hopefully tell a week in advance, where team members can then split up share of duties. If is sudden treat as a loss of a team member</t>
   </si>
   <si>
+    <t xml:space="preserve">David has moved and we are past that. Ashley is going to be doing a marthon during the last weekend, so we are preparing for that. </t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>duplicate work</t>
+  </si>
+  <si>
+    <t>When multiple team members are doing the same thing</t>
+  </si>
+  <si>
+    <t>Discuss which parts we will use, see if we can combine, or have one person take over.</t>
+  </si>
+  <si>
     <t>No issues</t>
   </si>
   <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>duplicate work</t>
-  </si>
-  <si>
-    <t>When multiple team members are doing the same thing</t>
-  </si>
-  <si>
-    <t>Discuss which parts we will use, see if we can combine, or have one person take over.</t>
-  </si>
-  <si>
     <t>worked on wrong components</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>Consider changing the team leader, work with others to see their thoughts</t>
   </si>
   <si>
+    <t>We had to rush during the end of iteration 1</t>
+  </si>
+  <si>
     <t>Technology competence</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
   </si>
   <si>
     <t>Either reassign task or direct to tutorial</t>
+  </si>
+  <si>
+    <t>Ashley met with David to explain steps to make the front end better</t>
   </si>
   <si>
     <t>Not familiar with the programming language used</t>
@@ -759,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>18</v>
@@ -783,10 +792,10 @@
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
         <v>3.0</v>
@@ -808,10 +817,10 @@
         <v>45944.0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>18</v>
@@ -835,10 +844,10 @@
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3">
         <v>2.0</v>
@@ -860,10 +869,10 @@
         <v>45944.0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -887,10 +896,10 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>2.0</v>
@@ -906,16 +915,16 @@
         <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="5">
         <v>45944.0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>18</v>
@@ -938,13 +947,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3">
         <v>3.0</v>
@@ -960,16 +969,16 @@
         <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="5">
         <v>45944.0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
@@ -993,10 +1002,10 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3">
         <v>4.0</v>
@@ -1012,16 +1021,16 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="5">
         <v>45944.0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>18</v>
@@ -1045,10 +1054,10 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3">
         <v>2.0</v>
@@ -1064,16 +1073,16 @@
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="5">
         <v>45944.0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>18</v>
@@ -1096,13 +1105,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3">
         <v>4.0</v>
@@ -1118,16 +1127,16 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="5">
         <v>45944.0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>18</v>
@@ -1151,10 +1160,10 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
         <v>4.0</v>
@@ -1170,16 +1179,16 @@
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5">
         <v>45944.0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>18</v>
@@ -1203,10 +1212,10 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3">
         <v>5.0</v>
@@ -1222,16 +1231,16 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="5">
         <v>45944.0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>18</v>
@@ -1254,13 +1263,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3">
         <v>4.0</v>
@@ -1276,16 +1285,16 @@
         <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="5">
         <v>45944.0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>18</v>
@@ -1309,10 +1318,10 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3">
         <v>2.0</v>
@@ -1328,16 +1337,16 @@
         <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="5">
         <v>45944.0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>18</v>
@@ -1361,10 +1370,10 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3">
         <v>2.0</v>
@@ -1380,16 +1389,16 @@
         <v>32</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5">
         <v>45944.0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>18</v>
@@ -1413,10 +1422,10 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3">
         <v>2.0</v>
@@ -1432,16 +1441,16 @@
         <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="5">
         <v>45944.0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>18</v>
@@ -1465,10 +1474,10 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
@@ -1488,10 +1497,10 @@
         <v>45944.0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>18</v>
@@ -1514,13 +1523,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>2.0</v>
@@ -1536,16 +1545,16 @@
         <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I21" s="5">
         <v>45944.0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>18</v>
@@ -1569,10 +1578,10 @@
     <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3">
         <v>2.0</v>
@@ -1588,16 +1597,16 @@
         <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I22" s="5">
         <v>45944.0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>18</v>
@@ -1621,10 +1630,10 @@
     <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" s="3">
         <v>3.0</v>
@@ -1640,16 +1649,16 @@
         <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I23" s="5">
         <v>45944.0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>18</v>
@@ -1672,13 +1681,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3">
         <v>3.0</v>
@@ -1694,16 +1703,16 @@
         <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24" s="5">
         <v>45944.0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>18</v>
@@ -1726,13 +1735,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3">
         <v>2.0</v>
@@ -1748,16 +1757,16 @@
         <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I25" s="5">
         <v>45944.0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>18</v>
@@ -1781,10 +1790,10 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3">
         <v>2.0</v>
@@ -1800,16 +1809,16 @@
         <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I26" s="5">
         <v>45944.0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>18</v>

--- a/doc/CS673_SPPP_RiskManagement_team3.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>Risk Category</t>
   </si>
@@ -74,7 +74,7 @@
     <t>No one dropped the class so far</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Closed</t>
   </si>
   <si>
     <t>add new team members</t>
@@ -113,7 +113,7 @@
     <t>Hopefully tell a week in advance, where team members can then split up share of duties. If is sudden treat as a loss of a team member</t>
   </si>
   <si>
-    <t xml:space="preserve">David has moved and we are past that. Ashley is going to be doing a marthon during the last weekend, so we are preparing for that. </t>
+    <t xml:space="preserve">David has moved and we are past that. Ashley did  a marthon during the last weekend, we prepared for that. </t>
   </si>
   <si>
     <t>Communication</t>
@@ -128,18 +128,21 @@
     <t>Discuss which parts we will use, see if we can combine, or have one person take over.</t>
   </si>
   <si>
+    <t>Two people worked on the docs for something, we merged them together</t>
+  </si>
+  <si>
+    <t>worked on wrong components</t>
+  </si>
+  <si>
+    <t>When team members are working on the wrong thing</t>
+  </si>
+  <si>
+    <t>Re-define who needs to do what. See if the wrong component can still be used</t>
+  </si>
+  <si>
     <t>No issues</t>
   </si>
   <si>
-    <t>worked on wrong components</t>
-  </si>
-  <si>
-    <t>When team members are working on the wrong thing</t>
-  </si>
-  <si>
-    <t>Re-define who needs to do what. See if the wrong component can still be used</t>
-  </si>
-  <si>
     <t>useless work</t>
   </si>
   <si>
@@ -354,6 +357,9 @@
   </si>
   <si>
     <t>If it is a temporary outage, is not that bad, and hopefully we can all work on something else. If it is long term or repeated, we will have to see about getting a new service provider</t>
+  </si>
+  <si>
+    <t>We had a few issues with uploads not working, but we had Donjay focus on this for the final iteration</t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>18</v>
@@ -844,10 +850,10 @@
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>2.0</v>
@@ -869,10 +875,10 @@
         <v>45944.0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -896,10 +902,10 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>2.0</v>
@@ -915,16 +921,16 @@
         <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5">
         <v>45944.0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>18</v>
@@ -947,13 +953,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>3.0</v>
@@ -969,16 +975,16 @@
         <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="5">
         <v>45944.0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
@@ -1002,10 +1008,10 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3">
         <v>4.0</v>
@@ -1021,16 +1027,16 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5">
         <v>45944.0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>18</v>
@@ -1054,10 +1060,10 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3">
         <v>2.0</v>
@@ -1073,16 +1079,16 @@
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5">
         <v>45944.0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>18</v>
@@ -1105,13 +1111,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
         <v>4.0</v>
@@ -1127,16 +1133,16 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="5">
         <v>45944.0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>18</v>
@@ -1160,10 +1166,10 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3">
         <v>4.0</v>
@@ -1179,16 +1185,16 @@
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="5">
         <v>45944.0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>18</v>
@@ -1212,10 +1218,10 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3">
         <v>5.0</v>
@@ -1231,16 +1237,16 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="5">
         <v>45944.0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>18</v>
@@ -1263,13 +1269,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3">
         <v>4.0</v>
@@ -1285,16 +1291,16 @@
         <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="5">
         <v>45944.0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>18</v>
@@ -1318,10 +1324,10 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3">
         <v>2.0</v>
@@ -1337,16 +1343,16 @@
         <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="5">
         <v>45944.0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>18</v>
@@ -1370,10 +1376,10 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>2.0</v>
@@ -1389,16 +1395,16 @@
         <v>32</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="5">
         <v>45944.0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>18</v>
@@ -1422,10 +1428,10 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3">
         <v>2.0</v>
@@ -1441,16 +1447,16 @@
         <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="5">
         <v>45944.0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>18</v>
@@ -1474,10 +1480,10 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
@@ -1497,10 +1503,10 @@
         <v>45944.0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>18</v>
@@ -1523,13 +1529,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3">
         <v>2.0</v>
@@ -1545,16 +1551,16 @@
         <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" s="5">
         <v>45944.0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>18</v>
@@ -1578,10 +1584,10 @@
     <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="3">
         <v>2.0</v>
@@ -1597,16 +1603,16 @@
         <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" s="5">
         <v>45944.0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>18</v>
@@ -1630,10 +1636,10 @@
     <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3">
         <v>3.0</v>
@@ -1649,16 +1655,16 @@
         <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23" s="5">
         <v>45944.0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>18</v>
@@ -1681,13 +1687,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="3">
         <v>3.0</v>
@@ -1703,16 +1709,16 @@
         <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="5">
         <v>45944.0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>18</v>
@@ -1735,13 +1741,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3">
         <v>2.0</v>
@@ -1757,16 +1763,16 @@
         <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="5">
         <v>45944.0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>18</v>
@@ -1790,10 +1796,10 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3">
         <v>2.0</v>
@@ -1809,16 +1815,16 @@
         <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I26" s="5">
         <v>45944.0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>18</v>
